--- a/课件/js第三周考试题/1605考试结果/JavaScript第三周考试成绩.xlsx
+++ b/课件/js第三周考试题/1605考试结果/JavaScript第三周考试成绩.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="笔试" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -280,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,6 +311,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="183" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showRuler="0" topLeftCell="A12" zoomScale="183" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,20 +606,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -623,7 +629,7 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -639,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="10">
-        <f>SUM(B3:D3)</f>
+        <f t="shared" ref="E3:E33" si="0">SUM(B3:D3)</f>
         <v>46.5</v>
       </c>
     </row>
@@ -657,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="10">
-        <f>SUM(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
     </row>
@@ -675,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <f>SUM(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
@@ -693,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="2">
-        <f>SUM(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
@@ -711,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="2">
-        <f>SUM(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>63.5</v>
       </c>
     </row>
@@ -729,7 +735,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="2">
-        <f>SUM(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
@@ -747,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="2">
-        <f>SUM(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
@@ -765,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="2">
-        <f>SUM(B10:D10)</f>
+        <f t="shared" si="0"/>
         <v>66.5</v>
       </c>
     </row>
@@ -783,7 +789,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="2">
-        <f>SUM(B11:D11)</f>
+        <f t="shared" si="0"/>
         <v>68.5</v>
       </c>
     </row>
@@ -801,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="2">
-        <f>SUM(B12:D12)</f>
+        <f t="shared" si="0"/>
         <v>68.5</v>
       </c>
     </row>
@@ -819,7 +825,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="2">
-        <f>SUM(B13:D13)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -837,7 +843,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="2">
-        <f>SUM(B14:D14)</f>
+        <f t="shared" si="0"/>
         <v>71.5</v>
       </c>
     </row>
@@ -855,7 +861,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="2">
-        <f>SUM(B15:D15)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
@@ -873,7 +879,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="2">
-        <f>SUM(B16:D16)</f>
+        <f t="shared" si="0"/>
         <v>78.5</v>
       </c>
     </row>
@@ -891,7 +897,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="2">
-        <f>SUM(B17:D17)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
@@ -909,7 +915,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="2">
-        <f>SUM(B18:D18)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
@@ -927,7 +933,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="2">
-        <f>SUM(B19:D19)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
@@ -945,7 +951,7 @@
         <v>23</v>
       </c>
       <c r="E20" s="2">
-        <f>SUM(B20:D20)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
@@ -963,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="8">
-        <f>SUM(B21:D21)</f>
+        <f t="shared" si="0"/>
         <v>79.5</v>
       </c>
     </row>
@@ -981,7 +987,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="2">
-        <f>SUM(B22:D22)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -999,7 +1005,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="2">
-        <f>SUM(B23:D23)</f>
+        <f t="shared" si="0"/>
         <v>80.5</v>
       </c>
     </row>
@@ -1017,7 +1023,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="2">
-        <f>SUM(B24:D24)</f>
+        <f t="shared" si="0"/>
         <v>80.5</v>
       </c>
     </row>
@@ -1035,7 +1041,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="2">
-        <f>SUM(B25:D25)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
@@ -1053,7 +1059,7 @@
         <v>30</v>
       </c>
       <c r="E26" s="2">
-        <f>SUM(B26:D26)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
@@ -1071,7 +1077,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="4">
-        <f>SUM(B27:D27)</f>
+        <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
     </row>
@@ -1089,7 +1095,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="4">
-        <f>SUM(B28:D28)</f>
+        <f t="shared" si="0"/>
         <v>88.5</v>
       </c>
     </row>
@@ -1107,7 +1113,7 @@
         <v>27</v>
       </c>
       <c r="E29" s="4">
-        <f>SUM(B29:D29)</f>
+        <f t="shared" si="0"/>
         <v>88.5</v>
       </c>
     </row>
@@ -1125,7 +1131,7 @@
         <v>30</v>
       </c>
       <c r="E30" s="4">
-        <f>SUM(B30:D30)</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -1143,7 +1149,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="4">
-        <f>SUM(B31:D31)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
@@ -1161,7 +1167,7 @@
         <v>30</v>
       </c>
       <c r="E32" s="6">
-        <f>SUM(B32:D32)</f>
+        <f t="shared" si="0"/>
         <v>94.5</v>
       </c>
     </row>
@@ -1179,7 +1185,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="6">
-        <f>SUM(B33:D33)</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
@@ -1201,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A12" zoomScale="188" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="188" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,21 +1218,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1239,352 +1245,662 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8">
-        <f t="shared" ref="F3:F33" si="0">SUM(B3:E3)</f>
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
         <v>0</v>
       </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <f>SUM(B3:E3)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8">
-        <f t="shared" si="0"/>
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10">
         <v>0</v>
       </c>
+      <c r="F4" s="10">
+        <f>SUM(B4:E4)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8">
-        <f t="shared" si="0"/>
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10">
         <v>0</v>
       </c>
+      <c r="F5" s="10">
+        <f>SUM(B5:E5)</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
+      <c r="A6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="10">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10">
         <v>0</v>
       </c>
+      <c r="E6" s="10">
+        <v>30</v>
+      </c>
+      <c r="F6" s="10">
+        <f>SUM(B6:E6)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10">
+        <v>25</v>
+      </c>
+      <c r="E7" s="10">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10">
+        <f>SUM(B7:E7)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="10">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10">
+        <f>SUM(B8:E8)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B9:E9)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15</v>
+      </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B10:E10)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15</v>
+      </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B11:E11)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B12:E12)</f>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8">
+        <f>SUM(B13:E13)</f>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B14:E14)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B15:E15)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20</v>
+      </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B16:E16)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7">
+        <v>35</v>
+      </c>
+      <c r="E17" s="7">
+        <v>15</v>
+      </c>
+      <c r="F17" s="8">
+        <f>SUM(B17:E17)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7">
+        <v>35</v>
+      </c>
+      <c r="F18" s="8">
+        <f>SUM(B18:E18)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20</v>
+      </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B19:E19)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B20:E20)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7">
+        <v>30</v>
+      </c>
+      <c r="E21" s="7">
+        <v>25</v>
+      </c>
+      <c r="F21" s="8">
+        <f>SUM(B21:E21)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="9">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B22:E22)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2">
+        <v>30</v>
+      </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B23:E23)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="7">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>30</v>
+      </c>
+      <c r="E24" s="7">
+        <v>35</v>
+      </c>
+      <c r="F24" s="8">
+        <f>SUM(B24:E24)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2">
+        <v>30</v>
+      </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B25:E25)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="6">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6">
+        <v>40</v>
+      </c>
+      <c r="E26" s="6">
+        <v>25</v>
+      </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B26:E26)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="6">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6">
+        <v>39</v>
+      </c>
+      <c r="E27" s="6">
+        <v>30</v>
+      </c>
       <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B27:E27)</f>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="A28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="6">
+        <v>10</v>
+      </c>
+      <c r="C28" s="6">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6">
+        <v>35</v>
+      </c>
+      <c r="E28" s="6">
+        <v>35</v>
+      </c>
       <c r="F28" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B28:E28)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6">
+        <v>10</v>
+      </c>
+      <c r="D29" s="6">
+        <v>35</v>
+      </c>
+      <c r="E29" s="6">
+        <v>35</v>
+      </c>
       <c r="F29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B29:E29)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="6">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6">
+        <v>10</v>
+      </c>
+      <c r="D30" s="6">
+        <v>40</v>
+      </c>
+      <c r="E30" s="6">
+        <v>35</v>
+      </c>
       <c r="F30" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B30:E30)</f>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="6">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6">
+        <v>40</v>
+      </c>
+      <c r="E31" s="6">
+        <v>40</v>
+      </c>
       <c r="F31" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B31:E31)</f>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="6">
+        <v>10</v>
+      </c>
+      <c r="C32" s="6">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6">
+        <v>40</v>
+      </c>
+      <c r="E32" s="6">
+        <v>40</v>
+      </c>
       <c r="F32" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B32:E32)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="6">
+        <v>10</v>
+      </c>
+      <c r="C33" s="6">
+        <v>10</v>
+      </c>
+      <c r="D33" s="6">
+        <v>40</v>
+      </c>
+      <c r="E33" s="6">
+        <v>40</v>
+      </c>
       <c r="F33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B33:E33)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:F26">
-    <sortCondition ref="F3"/>
+  <sortState ref="A3:F33">
+    <sortCondition ref="F1"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
